--- a/rnaSample/rnaSample_J.PLAGGENBERG_01.25.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_01.25.20.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -90,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -119,6 +119,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,15 +202,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,7 +242,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +257,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -311,19 +321,22 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="b">
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="b">
+      <c r="K2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -351,7 +364,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -363,19 +376,22 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="b">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="b">
+      <c r="K3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -389,7 +405,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -401,19 +417,22 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="b">
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="b">
+      <c r="K4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -439,19 +458,22 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="b">
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3" t="b">
+      <c r="K5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -477,19 +499,22 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="b">
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3" t="b">
+      <c r="K6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -503,7 +528,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -515,19 +540,22 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3" t="b">
+      <c r="K7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -553,19 +581,22 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="b">
+      <c r="K8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -591,19 +622,22 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="b">
+      <c r="K9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -617,7 +651,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -629,19 +663,22 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="b">
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="b">
+      <c r="K10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -667,19 +704,22 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="b">
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="b">
+      <c r="K11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -687,13 +727,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -705,19 +745,22 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="b">
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3" t="b">
+      <c r="K12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -725,13 +768,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -743,19 +786,22 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="b">
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="3" t="b">
+      <c r="K13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -763,13 +809,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -781,19 +827,22 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="b">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3" t="b">
+      <c r="K14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -801,13 +850,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -819,19 +868,22 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="b">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3" t="b">
+      <c r="K15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -839,13 +891,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -857,19 +909,22 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="b">
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="3" t="b">
+      <c r="K16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -877,13 +932,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -895,19 +950,22 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="b">
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="3" t="b">
+      <c r="K17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -915,13 +973,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -933,19 +991,22 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="b">
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="3" t="b">
+      <c r="K18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -953,13 +1014,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -971,19 +1032,22 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="b">
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="3" t="b">
+      <c r="K19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -991,13 +1055,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1009,19 +1073,22 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="b">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="3" t="b">
+      <c r="K20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1029,13 +1096,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1047,19 +1114,22 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="b">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3" t="b">
+      <c r="K21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -1067,13 +1137,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1085,19 +1155,22 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="b">
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="3" t="b">
+      <c r="K22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -1105,13 +1178,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1123,19 +1196,22 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="b">
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="3" t="b">
+      <c r="K23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -1143,13 +1219,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1161,19 +1237,22 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="b">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="3" t="b">
+      <c r="K24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -1181,13 +1260,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1199,19 +1278,22 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="b">
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="3" t="b">
+      <c r="K25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -1219,13 +1301,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1237,19 +1319,22 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="b">
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="3" t="b">
+      <c r="K26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1257,13 +1342,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="5" t="n">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1275,19 +1360,22 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="b">
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="3" t="b">
+      <c r="K27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -1295,13 +1383,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="5" t="n">
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1313,19 +1401,22 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3" t="b">
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="3" t="b">
+      <c r="K28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -1333,13 +1424,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1351,19 +1442,22 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="b">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="3" t="b">
+      <c r="K29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -1371,13 +1465,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1389,19 +1483,22 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3" t="b">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="3" t="b">
+      <c r="K30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -1409,13 +1506,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="5" t="n">
         <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1427,19 +1524,22 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="b">
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="3" t="b">
+      <c r="K31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_01.25.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_01.25.20.xlsx
@@ -90,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -119,12 +119,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -189,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,19 +196,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,7 +232,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,7 +247,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -321,21 +311,20 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -364,7 +353,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -376,21 +365,20 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -405,7 +393,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -417,21 +405,20 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -458,21 +445,20 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -499,21 +485,20 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -528,7 +513,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4" t="n">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -540,21 +525,20 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -581,21 +565,20 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -622,21 +605,20 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -651,7 +633,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="4" t="n">
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -663,21 +645,20 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -704,21 +685,20 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -727,13 +707,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="6" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -745,21 +725,20 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -768,13 +747,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -786,21 +765,20 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -809,13 +787,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -827,21 +805,20 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -850,13 +827,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -868,21 +845,20 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -891,13 +867,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="6" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -909,21 +885,20 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -932,13 +907,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -950,21 +925,20 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -973,13 +947,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="4" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -991,21 +965,20 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1014,13 +987,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="6" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1032,21 +1005,20 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1055,13 +1027,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="6" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1073,21 +1045,20 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1096,13 +1067,13 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="4" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1114,21 +1085,20 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1137,13 +1107,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="6" t="n">
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1155,21 +1125,20 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1178,13 +1147,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="4" t="n">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1196,21 +1165,20 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1219,13 +1187,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="4" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1237,21 +1205,20 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1260,13 +1227,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="6" t="n">
         <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1278,21 +1245,20 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1301,13 +1267,13 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="6" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1319,21 +1285,20 @@
       <c r="F26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1342,13 +1307,13 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="4" t="n">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1360,21 +1325,20 @@
       <c r="F27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1383,13 +1347,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="4" t="n">
         <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1401,21 +1365,20 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1424,13 +1387,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="6" t="n">
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1442,21 +1405,20 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1465,13 +1427,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="6" t="n">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1483,21 +1445,20 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1506,13 +1467,13 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1524,21 +1485,20 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
